--- a/Mifos Automation Excels/Client/2547-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-NONE-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2547-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-NONE-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -113,13 +113,16 @@
   </si>
   <si>
     <t>Repayment</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +132,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -213,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -236,7 +247,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,7 +599,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD14"/>
+      <selection activeCell="A7" sqref="A7:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,12 +648,12 @@
         <v>4133.22</v>
       </c>
       <c r="F2" s="6">
-        <v>963.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>178.1</v>
+        <v>211.19</v>
       </c>
       <c r="B3" s="6">
         <v>96.99</v>
@@ -643,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>81.11</v>
+        <v>114.2</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -696,10 +718,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,10 +883,10 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>963.77</v>
+        <v>921.65</v>
       </c>
       <c r="G4" s="9">
-        <v>3169.45</v>
+        <v>3211.57</v>
       </c>
       <c r="H4" s="6">
         <v>42.12</v>
@@ -907,14 +929,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>921.65</v>
+        <v>932.09</v>
       </c>
       <c r="G5" s="9">
-        <v>2247.8000000000002</v>
-      </c>
-      <c r="H5" s="12">
-        <f>G4*(12%/365)*B5</f>
-        <v>31.260328767123287</v>
+        <v>2279.48</v>
+      </c>
+      <c r="H5" s="6">
+        <v>31.68</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -954,13 +975,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>941.6</v>
+        <v>940.54</v>
       </c>
       <c r="G6" s="9">
-        <v>1306.2</v>
+        <v>1338.94</v>
       </c>
       <c r="H6" s="6">
-        <v>22.17</v>
+        <v>23.23</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1000,13 +1021,13 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>950.46</v>
+        <v>950.56</v>
       </c>
       <c r="G7" s="6">
-        <v>355.74</v>
+        <v>388.38</v>
       </c>
       <c r="H7" s="6">
-        <v>13.31</v>
+        <v>13.21</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1043,14 +1064,16 @@
       <c r="C8" s="7">
         <v>42217</v>
       </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>355.74</v>
+        <v>388.38</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <v>3.51</v>
+        <v>3.96</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1059,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>359.25</v>
+        <v>392.34</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1074,10 +1097,55 @@
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>359.25</v>
+        <v>392.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12">
+        <v>212</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12">
+        <v>211.19</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>5211.1899999999996</v>
+      </c>
+      <c r="L9" s="12">
+        <v>963.77</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <v>4247.42</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:E9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1087,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1208,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1174,7 +1242,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/2547-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-NONE-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2547-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-NONE-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -121,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -259,6 +264,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -268,6 +276,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -316,7 +327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,9 +360,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,6 +412,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -718,10 +763,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,12 +784,13 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.85546875" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -784,17 +830,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -821,8 +868,9 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -860,17 +908,18 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
+      <c r="N3" s="6"/>
       <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -906,17 +955,18 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="6">
         <v>0</v>
       </c>
       <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>963.77</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -952,17 +1002,18 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>963.77</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -998,17 +1049,18 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>963.77</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1044,17 +1096,18 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
+      <c r="N7" s="6"/>
       <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>963.77</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1090,26 +1143,27 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>392.34</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12">
         <v>212</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="14">
         <v>5000</v>
       </c>
@@ -1132,13 +1186,14 @@
       <c r="M9" s="12">
         <v>0</v>
       </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
+      <c r="N9" s="15"/>
       <c r="O9" s="12">
         <v>0</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
         <v>4247.42</v>
       </c>
     </row>
@@ -1155,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
